--- a/chegg.xlsx
+++ b/chegg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C3111-B7CD-42C4-99A5-E8015B13F696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC4EF0C-A170-4023-8B1F-778177ABF9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11235" yWindow="0" windowWidth="27270" windowHeight="20985" activeTab="1" xr2:uid="{432C428B-38F2-40D4-B093-3E544D75CE3B}"/>
+    <workbookView xWindow="19755" yWindow="1560" windowWidth="18555" windowHeight="19155" activeTab="1" xr2:uid="{432C428B-38F2-40D4-B093-3E544D75CE3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>total other income (expense)</t>
   </si>
   <si>
-    <t>ev / mc</t>
-  </si>
-  <si>
     <t>cash @ beginning of period</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>npv</t>
+  </si>
+  <si>
+    <t>ev / fcf</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -400,6 +400,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +739,7 @@
   <dimension ref="B1:L47"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,11 +832,11 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8">
-        <f>L7/L4</f>
-        <v>1.9735322700508775</v>
+        <v>88</v>
+      </c>
+      <c r="L8" s="22">
+        <f>L7/Sheet2!K34</f>
+        <v>2.1166768853464135</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -890,22 +891,22 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -915,97 +916,97 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1018,10 +1019,10 @@
   <dimension ref="B1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37:M40"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,22 +1072,22 @@
         <v>2023</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -1202,14 +1203,14 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="15"/>
@@ -1224,7 +1225,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="15"/>
@@ -1234,7 +1235,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="15"/>
@@ -1527,7 +1528,7 @@
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="12">
         <v>-77.7</v>
@@ -1563,7 +1564,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -1821,7 +1822,7 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>141.19999999999999</v>
@@ -1847,7 +1848,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <f t="shared" ref="F30:H30" si="9">F29-F28</f>
@@ -1875,7 +1876,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31">
         <f t="shared" ref="F31:H31" si="10">F30-F29</f>
@@ -1904,7 +1905,7 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32">
         <v>75.099999999999994</v>
@@ -1933,10 +1934,10 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" s="12">
         <f>-42.3</f>
@@ -1961,7 +1962,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34">
         <f>SUM(F32:F33)</f>
@@ -1990,17 +1991,17 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M39" s="2"/>
     </row>

--- a/chegg.xlsx
+++ b/chegg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC4EF0C-A170-4023-8B1F-778177ABF9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F868A-BD00-48D3-9FF3-20B95285305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19755" yWindow="1560" windowWidth="18555" windowHeight="19155" activeTab="1" xr2:uid="{432C428B-38F2-40D4-B093-3E544D75CE3B}"/>
+    <workbookView xWindow="21990" yWindow="0" windowWidth="16515" windowHeight="20985" activeTab="1" xr2:uid="{432C428B-38F2-40D4-B093-3E544D75CE3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Chegg</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>ev / fcf</t>
+  </si>
+  <si>
+    <t>q324</t>
+  </si>
+  <si>
+    <t>total questions asked</t>
+  </si>
+  <si>
+    <t>study pack rev</t>
   </si>
 </sst>
 </file>
@@ -377,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -400,7 +409,8 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13804A93-4D95-4F7A-9086-2F359A67F391}">
-  <dimension ref="B1:L47"/>
+  <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,12 +757,12 @@
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>1</v>
       </c>
@@ -760,7 +770,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -774,7 +784,7 @@
         <v>102.9</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -789,7 +799,7 @@
         <v>174.93</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -797,11 +807,15 @@
         <v>4</v>
       </c>
       <c r="L5">
+        <f>152+209</f>
+        <v>361</v>
+      </c>
+      <c r="M5">
         <f>135.7+212</f>
         <v>347.7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -815,7 +829,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -827,54 +841,54 @@
       </c>
       <c r="L7" s="2">
         <f>L4-L5+L6</f>
-        <v>345.23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <v>331.93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="22">
-        <f>L7/Sheet2!K34</f>
-        <v>2.1166768853464135</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <f>L7/Sheet2!K36</f>
+        <v>2.035131820968731</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>19</v>
       </c>
@@ -1016,13 +1030,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72E67F-4CE9-44B8-9C6B-F08A6351E538}">
-  <dimension ref="B1:R40"/>
+  <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,12 +1044,12 @@
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2015</v>
       </c>
@@ -1089,8 +1103,11 @@
       <c r="Q2" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -1106,8 +1123,11 @@
       <c r="Q3">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -1123,14 +1143,18 @@
         <f>Q6/Q3</f>
         <v>33.363636363636367</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f>R6/R3</f>
+        <v>31.526315789473685</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -1143,35 +1167,48 @@
       <c r="M6">
         <v>165.9</v>
       </c>
+      <c r="N6">
+        <v>139.9</v>
+      </c>
       <c r="Q6">
         <v>146.80000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="7">
-        <f>J6/J16</f>
+        <f>J6/J18</f>
         <v>0.87625505281001437</v>
       </c>
       <c r="K7" s="15">
-        <f>K6/K16</f>
+        <f>K6/K18</f>
         <v>0.89417841686444233</v>
       </c>
       <c r="M7" s="7">
-        <f>M6/M16</f>
+        <f>M6/M18</f>
         <v>0.90705303444505192</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <f>N6/N18</f>
+        <v>0.88600379987333755</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7">
-        <f>Q6/Q16</f>
+        <f>Q6/Q18</f>
         <v>0.89950980392156876</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="7">
+        <f>R6/R18</f>
+        <v>0.87701317715959004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -1184,829 +1221,973 @@
       <c r="M8">
         <v>17</v>
       </c>
+      <c r="N8">
+        <v>17.899999999999999</v>
+      </c>
       <c r="Q8">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="7">
-        <f>J8/J16</f>
+        <f>J8/J18</f>
         <v>0.12374494718998567</v>
       </c>
       <c r="K9" s="15">
-        <f>K8/K16</f>
+        <f>K8/K18</f>
         <v>0.10582158313555773</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M9" s="7">
+        <f>M8/M18</f>
+        <v>9.2946965554948052E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <f>N8/N18</f>
+        <v>0.11336288790373653</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>Q8/Q18</f>
+        <v>9.9877450980392163E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f>R8/R18</f>
+        <v>0.12298682284040996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>76</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>3.4</v>
+      </c>
+      <c r="R10">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="7">
+        <v>1.2329999999999999</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="23">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="R12" s="23">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q13" s="23">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="R13" s="23">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J14" s="7"/>
       <c r="K14" s="15"/>
-      <c r="Q14">
-        <v>141.69999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J15" s="7"/>
       <c r="K15" s="15"/>
-      <c r="Q15">
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="15"/>
+      <c r="Q16">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="R16">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="15"/>
+      <c r="Q17">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="R17">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="5">
         <v>301.39999999999998</v>
       </c>
-      <c r="D16">
+      <c r="D18" s="5">
         <v>254.1</v>
       </c>
-      <c r="E16">
+      <c r="E18" s="5">
         <v>255.1</v>
       </c>
-      <c r="F16">
+      <c r="F18" s="5">
         <v>321.10000000000002</v>
       </c>
-      <c r="G16">
+      <c r="G18" s="5">
         <v>410.9</v>
       </c>
-      <c r="H16">
+      <c r="H18" s="5">
         <v>644.29999999999995</v>
       </c>
-      <c r="I16">
+      <c r="I18" s="5">
         <v>776.2</v>
       </c>
-      <c r="J16">
+      <c r="J18" s="5">
         <f>J6+J8</f>
         <v>766.9</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K18" s="13">
         <f>K6+K8</f>
         <v>716.3</v>
       </c>
-      <c r="L16">
+      <c r="L18" s="5">
         <v>187.6</v>
       </c>
-      <c r="M16">
+      <c r="M18" s="5">
         <v>182.9</v>
       </c>
-      <c r="P16">
+      <c r="N18" s="5">
+        <v>157.9</v>
+      </c>
+      <c r="P18" s="5">
         <v>174.4</v>
       </c>
-      <c r="Q16">
-        <f>SUM(Q14:Q15)</f>
+      <c r="Q18" s="5">
+        <f>SUM(Q16:Q17)</f>
         <v>163.19999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="R18" s="5">
+        <f>SUM(R16:R17)</f>
+        <v>136.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F19" s="12">
         <v>-80</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G19" s="12">
         <v>-92.2</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H19" s="12">
         <v>-205.4</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I19" s="12">
         <v>-254.9</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J19" s="12">
         <v>-197.4</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K19" s="16">
         <v>-225.8</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L19" s="12">
         <v>-49.2</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M19" s="12">
         <v>-47.4</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="P17" s="12">
+      <c r="N19" s="12">
+        <v>-83.6</v>
+      </c>
+      <c r="P19" s="12">
         <v>-46.5</v>
       </c>
-      <c r="Q17">
+      <c r="Q19" s="12">
         <v>-45.4</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="R19" s="12">
+        <v>-43.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="5">
-        <f>SUM(C16,C17)</f>
+      <c r="C20" s="5">
+        <f>SUM(C18,C19)</f>
         <v>301.39999999999998</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" ref="D18:H18" si="1">SUM(D16,D17)</f>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:H20" si="1">SUM(D18,D19)</f>
         <v>254.1</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>255.1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
         <v>241.10000000000002</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>318.7</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H20" s="5">
         <f t="shared" si="1"/>
         <v>438.9</v>
       </c>
-      <c r="I18" s="5">
-        <f>SUM(I16,I17)</f>
+      <c r="I20" s="5">
+        <f>SUM(I18,I19)</f>
         <v>521.30000000000007</v>
       </c>
-      <c r="J18" s="9">
-        <f>SUM(J16,J17)</f>
+      <c r="J20" s="9">
+        <f>SUM(J18,J19)</f>
         <v>569.5</v>
       </c>
-      <c r="K18" s="17">
-        <f>SUM(K16,K17)</f>
+      <c r="K20" s="17">
+        <f>SUM(K18,K19)</f>
         <v>490.49999999999994</v>
       </c>
-      <c r="L18" s="5">
-        <f>SUM(L16,L17)</f>
+      <c r="L20" s="5">
+        <f>SUM(L18,L19)</f>
         <v>138.39999999999998</v>
       </c>
-      <c r="M18" s="5">
-        <f t="shared" ref="M18:Q18" si="2">SUM(M16,M17)</f>
+      <c r="M20" s="5">
+        <f t="shared" ref="M20:Q20" si="2">SUM(M18,M19)</f>
         <v>135.5</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N20" s="5">
+        <f t="shared" si="2"/>
+        <v>74.300000000000011</v>
+      </c>
+      <c r="O20" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
+      <c r="P20" s="5">
         <f t="shared" si="2"/>
         <v>127.9</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q20" s="5">
         <f t="shared" si="2"/>
         <v>117.79999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11">
-        <f>C18/C16</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" ref="D19:H19" si="3">D18/D16</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="3"/>
-        <v>0.7508564310183744</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="3"/>
-        <v>0.77561450474568028</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="3"/>
-        <v>0.68120440788452585</v>
-      </c>
-      <c r="I19" s="11">
-        <f>I18/I16</f>
-        <v>0.67160525637722246</v>
-      </c>
-      <c r="J19" s="11">
-        <f>J18/J16</f>
-        <v>0.74260007823705831</v>
-      </c>
-      <c r="K19" s="18">
-        <f>K18/K16</f>
-        <v>0.68476895155661033</v>
-      </c>
-      <c r="L19" s="7">
-        <f>L18/L16</f>
-        <v>0.73773987206823022</v>
-      </c>
-      <c r="M19" s="7">
-        <f t="shared" ref="M19:Q19" si="4">M18/M16</f>
-        <v>0.74084199015855656</v>
-      </c>
-      <c r="N19" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="7">
-        <f t="shared" si="4"/>
-        <v>0.73337155963302758</v>
-      </c>
-      <c r="Q19" s="7">
-        <f t="shared" si="4"/>
-        <v>0.72181372549019607</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="12">
-        <v>-114.3</v>
-      </c>
-      <c r="G20" s="12">
-        <v>-139.80000000000001</v>
-      </c>
-      <c r="H20" s="12">
-        <v>-170.9</v>
-      </c>
-      <c r="I20" s="12">
-        <v>-178.8</v>
-      </c>
-      <c r="J20" s="12">
-        <v>-196.6</v>
-      </c>
-      <c r="K20" s="16">
-        <v>-191.7</v>
-      </c>
-      <c r="L20" s="12">
-        <v>-46.9</v>
-      </c>
-      <c r="M20" s="12">
-        <v>-52.8</v>
-      </c>
-      <c r="P20" s="12">
-        <v>-44.4</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>-43.6</v>
+      <c r="R20" s="5">
+        <f t="shared" ref="R20" si="3">SUM(R18,R19)</f>
+        <v>93.199999999999989</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="12">
-        <v>-54.7</v>
-      </c>
-      <c r="G21" s="12">
-        <v>-63.6</v>
-      </c>
-      <c r="H21" s="12">
-        <v>-81.900000000000006</v>
-      </c>
-      <c r="I21" s="12">
-        <v>-105.4</v>
-      </c>
-      <c r="J21" s="12">
-        <v>-147.69999999999999</v>
-      </c>
-      <c r="K21" s="16">
-        <v>-126.6</v>
-      </c>
-      <c r="L21" s="12">
-        <v>-37</v>
-      </c>
-      <c r="M21" s="12">
-        <v>-30.9</v>
-      </c>
-      <c r="P21" s="12">
-        <v>-30</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>-23.5</v>
+        <v>40</v>
+      </c>
+      <c r="C21" s="11">
+        <f>C20/C18</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" ref="D21:H21" si="4">D20/D18</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="4"/>
+        <v>0.7508564310183744</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="4"/>
+        <v>0.77561450474568028</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="4"/>
+        <v>0.68120440788452585</v>
+      </c>
+      <c r="I21" s="11">
+        <f>I20/I18</f>
+        <v>0.67160525637722246</v>
+      </c>
+      <c r="J21" s="11">
+        <f>J20/J18</f>
+        <v>0.74260007823705831</v>
+      </c>
+      <c r="K21" s="18">
+        <f>K20/K18</f>
+        <v>0.68476895155661033</v>
+      </c>
+      <c r="L21" s="7">
+        <f>L20/L18</f>
+        <v>0.73773987206823022</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" ref="M21:Q21" si="5">M20/M18</f>
+        <v>0.74084199015855656</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.4705509816339456</v>
+      </c>
+      <c r="O21" s="7" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.73337155963302758</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.72181372549019607</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" ref="R21" si="6">R20/R18</f>
+        <v>0.68228404099560758</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F22" s="12">
-        <v>-77.7</v>
+        <v>-114.3</v>
       </c>
       <c r="G22" s="12">
-        <v>-97.5</v>
+        <v>-139.80000000000001</v>
       </c>
       <c r="H22" s="12">
-        <v>-129.30000000000001</v>
+        <v>-170.9</v>
       </c>
       <c r="I22" s="12">
-        <v>-159</v>
+        <v>-178.8</v>
       </c>
       <c r="J22" s="12">
-        <v>-216.2</v>
+        <v>-196.6</v>
       </c>
       <c r="K22" s="16">
-        <v>-239.8</v>
+        <v>-191.7</v>
       </c>
       <c r="L22" s="12">
-        <v>-59</v>
+        <v>-46.9</v>
       </c>
       <c r="M22" s="12">
-        <v>-70.3</v>
-      </c>
-      <c r="N22" s="12"/>
+        <v>-52.8</v>
+      </c>
+      <c r="N22" s="22">
+        <v>-46.2</v>
+      </c>
       <c r="P22" s="12">
-        <v>-55.5</v>
+        <v>-44.4</v>
       </c>
       <c r="Q22" s="12">
-        <v>-54</v>
+        <v>-43.6</v>
+      </c>
+      <c r="R22" s="12">
+        <v>-41.3</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="12">
+        <v>-54.7</v>
+      </c>
+      <c r="G23" s="12">
+        <v>-63.6</v>
+      </c>
+      <c r="H23" s="12">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="I23" s="12">
+        <v>-105.4</v>
+      </c>
+      <c r="J23" s="12">
+        <v>-147.69999999999999</v>
+      </c>
+      <c r="K23" s="16">
+        <v>-126.6</v>
+      </c>
+      <c r="L23" s="12">
+        <v>-37</v>
+      </c>
+      <c r="M23" s="12">
+        <v>-30.9</v>
+      </c>
+      <c r="N23" s="22">
+        <v>-28.9</v>
+      </c>
+      <c r="P23" s="12">
+        <v>-30</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>-23.5</v>
+      </c>
+      <c r="R23" s="12">
+        <v>-26.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="12">
+        <v>-77.7</v>
+      </c>
+      <c r="G24" s="12">
+        <v>-97.5</v>
+      </c>
+      <c r="H24" s="12">
+        <v>-129.30000000000001</v>
+      </c>
+      <c r="I24" s="12">
+        <v>-159</v>
+      </c>
+      <c r="J24" s="12">
+        <v>-216.2</v>
+      </c>
+      <c r="K24" s="16">
+        <v>-239.8</v>
+      </c>
+      <c r="L24" s="12">
+        <v>-59</v>
+      </c>
+      <c r="M24" s="12">
+        <v>-70.3</v>
+      </c>
+      <c r="N24" s="12">
+        <v>-53.5</v>
+      </c>
+      <c r="P24" s="12">
+        <v>-55.5</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>-54</v>
+      </c>
+      <c r="R24" s="12">
+        <v>-51.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="16"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="Q23" s="12">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="16"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12">
+        <v>-3.6</v>
+      </c>
+      <c r="Q25" s="12">
         <v>-481.5</v>
       </c>
-      <c r="R23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="R25" s="12">
+        <v>-195.7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="5">
-        <f t="shared" ref="C24:P24" si="5">C18+C20+C21+C22</f>
+      <c r="C26" s="5">
+        <f t="shared" ref="C26:P26" si="7">C20+C22+C23+C24</f>
         <v>301.39999999999998</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" si="5"/>
+      <c r="D26" s="5">
+        <f t="shared" si="7"/>
         <v>254.1</v>
       </c>
-      <c r="E24" s="5">
-        <f t="shared" si="5"/>
+      <c r="E26" s="5">
+        <f t="shared" si="7"/>
         <v>255.1</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="5"/>
+      <c r="F26" s="5">
+        <f t="shared" si="7"/>
         <v>-5.5999999999999801</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="5"/>
+      <c r="G26" s="5">
+        <f t="shared" si="7"/>
         <v>17.799999999999983</v>
       </c>
-      <c r="H24" s="5">
-        <f t="shared" si="5"/>
+      <c r="H26" s="5">
+        <f t="shared" si="7"/>
         <v>56.799999999999983</v>
       </c>
-      <c r="I24" s="9">
-        <f t="shared" si="5"/>
+      <c r="I26" s="9">
+        <f t="shared" si="7"/>
         <v>78.100000000000051</v>
       </c>
-      <c r="J24" s="9">
-        <f t="shared" si="5"/>
+      <c r="J26" s="9">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="K24" s="17">
-        <f t="shared" si="5"/>
+      <c r="K26" s="17">
+        <f t="shared" si="7"/>
         <v>-67.600000000000051</v>
       </c>
-      <c r="L24" s="21">
-        <f t="shared" si="5"/>
+      <c r="L26" s="21">
+        <f t="shared" si="7"/>
         <v>-4.5000000000000284</v>
       </c>
-      <c r="M24" s="21">
-        <f t="shared" si="5"/>
+      <c r="M26" s="21">
+        <f t="shared" si="7"/>
         <v>-18.499999999999993</v>
       </c>
-      <c r="N24" s="21">
-        <f t="shared" si="5"/>
+      <c r="N26" s="21">
+        <f>N20+N22+N23+N24+N25</f>
+        <v>-57.899999999999991</v>
+      </c>
+      <c r="O26" s="21">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O24" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="21">
-        <f t="shared" si="5"/>
+      <c r="P26" s="21">
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="Q24" s="21">
-        <f>Q18+Q20+Q21+Q22+Q23</f>
+      <c r="Q26" s="21">
+        <f>Q20+Q22+Q23+Q24+Q25</f>
         <v>-484.8</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="R26" s="21">
+        <f>R20+R22+R23+R24+R25</f>
+        <v>-222.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="5">
-        <f t="shared" ref="C25:K25" si="6">C24/C16</f>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:K27" si="8">C26/C18</f>
         <v>1</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" si="6"/>
+      <c r="D27" s="5">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E25" s="5">
-        <f t="shared" si="6"/>
+      <c r="E27" s="5">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="F25" s="10">
-        <f t="shared" si="6"/>
+      <c r="F27" s="10">
+        <f t="shared" si="8"/>
         <v>-1.7440049828713732E-2</v>
       </c>
-      <c r="G25" s="10">
-        <f t="shared" si="6"/>
+      <c r="G27" s="10">
+        <f t="shared" si="8"/>
         <v>4.3319542467753672E-2</v>
       </c>
-      <c r="H25" s="10">
-        <f t="shared" si="6"/>
+      <c r="H27" s="10">
+        <f t="shared" si="8"/>
         <v>8.8157690516839957E-2</v>
       </c>
-      <c r="I25" s="10">
-        <f t="shared" si="6"/>
+      <c r="I27" s="10">
+        <f t="shared" si="8"/>
         <v>0.10061839732027834</v>
       </c>
-      <c r="J25" s="10">
-        <f t="shared" si="6"/>
+      <c r="J27" s="10">
+        <f t="shared" si="8"/>
         <v>1.1735558742991264E-2</v>
       </c>
-      <c r="K25" s="19">
-        <f t="shared" si="6"/>
+      <c r="K27" s="19">
+        <f t="shared" si="8"/>
         <v>-9.4373865698729659E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F28" s="12">
         <v>-7.2</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G28" s="12">
         <v>-24.8</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H28" s="12">
         <v>-57.6</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I28" s="12">
         <v>-72.400000000000006</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J28" s="8">
         <v>95</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K28" s="20">
         <v>118</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L28" s="12">
         <v>10.8</v>
       </c>
-      <c r="M26">
+      <c r="M28">
         <f>64.1- 1.1</f>
         <v>62.999999999999993</v>
       </c>
-      <c r="P26">
+      <c r="N28">
+        <f>-0.733+40.5</f>
+        <v>39.767000000000003</v>
+      </c>
+      <c r="P28">
         <v>10.1</v>
       </c>
-      <c r="Q26">
+      <c r="Q28">
         <f>7.1-0.65</f>
         <v>6.4499999999999993</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="12">
-        <v>-1.4</v>
-      </c>
-      <c r="G27" s="12">
-        <v>-2.6</v>
-      </c>
-      <c r="H27" s="12">
-        <v>-5.4</v>
-      </c>
-      <c r="I27" s="12">
-        <v>-7.2</v>
-      </c>
-      <c r="J27" s="8">
-        <v>162.69999999999999</v>
-      </c>
-      <c r="K27" s="20">
-        <v>-32.1</v>
-      </c>
-      <c r="L27">
-        <v>-4.2</v>
-      </c>
-      <c r="M27">
-        <v>-19.7</v>
-      </c>
-      <c r="P27">
-        <v>-9.1</v>
-      </c>
-      <c r="Q27">
-        <v>-138.30000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="5">
-        <f t="shared" ref="D28:H28" si="7">SUM(D24,D26,D27)</f>
-        <v>254.1</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="7"/>
-        <v>255.1</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="7"/>
-        <v>-14.19999999999998</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="7"/>
-        <v>-9.6000000000000174</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="7"/>
-        <v>-6.2000000000000188</v>
-      </c>
-      <c r="I28" s="5">
-        <f>SUM(I24,I26,I27)</f>
-        <v>-1.4999999999999547</v>
-      </c>
-      <c r="J28" s="9">
-        <f>SUM(J24,J26,J27)</f>
-        <v>266.7</v>
-      </c>
-      <c r="K28" s="17">
-        <f>SUM(K24,K26,K27)</f>
-        <v>18.299999999999947</v>
-      </c>
-      <c r="L28" s="5">
-        <f>SUM(L24,L26,L27)</f>
-        <v>2.0999999999999721</v>
-      </c>
-      <c r="M28" s="5">
-        <f t="shared" ref="M28:Q28" si="8">SUM(M24,M26,M27)</f>
-        <v>24.8</v>
-      </c>
-      <c r="N28" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="5">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="Q28" s="21">
-        <f t="shared" si="8"/>
-        <v>-616.65000000000009</v>
+      <c r="R28">
+        <f>-0.658+7.6</f>
+        <v>6.9419999999999993</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29">
-        <v>141.19999999999999</v>
-      </c>
-      <c r="F29">
-        <v>127</v>
-      </c>
-      <c r="G29">
-        <v>375.9</v>
-      </c>
-      <c r="H29">
-        <v>389.4</v>
-      </c>
-      <c r="I29">
-        <v>481.7</v>
-      </c>
-      <c r="J29">
-        <v>855.9</v>
-      </c>
-      <c r="K29" s="14">
-        <v>475.9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30:H30" si="9">F29-F28</f>
-        <v>141.19999999999999</v>
-      </c>
-      <c r="G30">
+        <v>37</v>
+      </c>
+      <c r="F29" s="12">
+        <v>-1.4</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-2.6</v>
+      </c>
+      <c r="H29" s="12">
+        <v>-5.4</v>
+      </c>
+      <c r="I29" s="12">
+        <v>-7.2</v>
+      </c>
+      <c r="J29" s="8">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="K29" s="20">
+        <v>-32.1</v>
+      </c>
+      <c r="L29">
+        <v>-4.2</v>
+      </c>
+      <c r="M29">
+        <v>-19.7</v>
+      </c>
+      <c r="N29">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="P29">
+        <v>-9.1</v>
+      </c>
+      <c r="Q29">
+        <v>-138.30000000000001</v>
+      </c>
+      <c r="R29">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:H30" si="9">SUM(D26,D28,D29)</f>
+        <v>254.1</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="9"/>
-        <v>385.5</v>
-      </c>
-      <c r="H30">
+        <v>255.1</v>
+      </c>
+      <c r="F30" s="5">
         <f t="shared" si="9"/>
-        <v>395.6</v>
-      </c>
-      <c r="I30">
-        <f>J29</f>
-        <v>855.9</v>
-      </c>
-      <c r="J30">
-        <f>K29</f>
-        <v>475.9</v>
-      </c>
-      <c r="K30" s="14">
-        <v>138</v>
+        <v>-14.19999999999998</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="9"/>
+        <v>-9.6000000000000174</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="9"/>
+        <v>-6.2000000000000188</v>
+      </c>
+      <c r="I30" s="5">
+        <f>SUM(I26,I28,I29)</f>
+        <v>-1.4999999999999547</v>
+      </c>
+      <c r="J30" s="9">
+        <f>SUM(J26,J28,J29)</f>
+        <v>266.7</v>
+      </c>
+      <c r="K30" s="17">
+        <f>SUM(K26,K28,K29)</f>
+        <v>18.299999999999947</v>
+      </c>
+      <c r="L30" s="5">
+        <f>SUM(L26,L28,L29)</f>
+        <v>2.0999999999999721</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" ref="M30:Q30" si="10">SUM(M26,M28,M29)</f>
+        <v>24.8</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="10"/>
+        <v>-18.304999999999989</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="21">
+        <f t="shared" si="10"/>
+        <v>-616.65000000000009</v>
+      </c>
+      <c r="R30" s="21">
+        <f t="shared" ref="R30" si="11">SUM(R26,R28,R29)</f>
+        <v>-212.55799999999999</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>141.19999999999999</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:H31" si="10">F30-F29</f>
-        <v>14.199999999999989</v>
+        <v>127</v>
       </c>
       <c r="G31">
-        <f t="shared" si="10"/>
-        <v>9.6000000000000227</v>
+        <v>375.9</v>
       </c>
       <c r="H31">
-        <f t="shared" si="10"/>
-        <v>6.2000000000000455</v>
-      </c>
-      <c r="I31" s="12">
-        <f>I30-I29</f>
-        <v>374.2</v>
-      </c>
-      <c r="J31" s="12">
-        <f>J30-J29</f>
-        <v>-380</v>
-      </c>
-      <c r="K31" s="16">
-        <f>K30-K29</f>
-        <v>-337.9</v>
+        <v>389.4</v>
+      </c>
+      <c r="I31">
+        <v>481.7</v>
+      </c>
+      <c r="J31">
+        <v>855.9</v>
+      </c>
+      <c r="K31" s="14">
+        <v>475.9</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:H32" si="12">F31-F30</f>
+        <v>141.19999999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="12"/>
+        <v>385.5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="12"/>
+        <v>395.6</v>
+      </c>
+      <c r="I32">
+        <f>J31</f>
+        <v>855.9</v>
+      </c>
+      <c r="J32">
+        <f>K31</f>
+        <v>475.9</v>
+      </c>
+      <c r="K32" s="14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:H33" si="13">F32-F31</f>
+        <v>14.199999999999989</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="13"/>
+        <v>9.6000000000000227</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="13"/>
+        <v>6.2000000000000455</v>
+      </c>
+      <c r="I33" s="12">
+        <f>I32-I31</f>
+        <v>374.2</v>
+      </c>
+      <c r="J33" s="12">
+        <f>J32-J31</f>
+        <v>-380</v>
+      </c>
+      <c r="K33" s="16">
+        <f>K32-K31</f>
+        <v>-337.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <v>75.099999999999994</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <v>113.4</v>
       </c>
-      <c r="H32">
+      <c r="H34">
         <v>236.4</v>
       </c>
-      <c r="I32">
+      <c r="I34">
         <v>273.2</v>
       </c>
-      <c r="J32">
+      <c r="J34">
         <v>255.7</v>
       </c>
-      <c r="K32">
+      <c r="K34">
         <v>246.2</v>
       </c>
-      <c r="L32">
-        <v>73.2</v>
-      </c>
-      <c r="P32">
+      <c r="N34">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="P34">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="R34">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F35" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G35" s="12">
         <f>-42.3</f>
         <v>-42.3</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H35" s="12">
         <f>-83.1</f>
         <v>-83.1</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I35" s="12">
         <f>-94.2-10.9</f>
         <v>-105.10000000000001</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J35" s="12">
         <f>-103.1-3.8</f>
         <v>-106.89999999999999</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K35" s="12">
         <f>-83.1</f>
         <v>-83.1</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="N35">
+        <v>-23.4</v>
+      </c>
+      <c r="R35">
+        <v>-15.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="F34">
-        <f>SUM(F32:F33)</f>
+      <c r="F36">
+        <f>SUM(F34:F35)</f>
         <v>75.099999999999994</v>
       </c>
-      <c r="G34">
-        <f t="shared" ref="G34:K34" si="11">SUM(G32:G33)</f>
+      <c r="G36">
+        <f t="shared" ref="G36:K36" si="14">SUM(G34:G35)</f>
         <v>71.100000000000009</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="11"/>
+      <c r="H36">
+        <f t="shared" si="14"/>
         <v>153.30000000000001</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="11"/>
+      <c r="I36">
+        <f t="shared" si="14"/>
         <v>168.09999999999997</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="11"/>
+      <c r="J36">
+        <f t="shared" si="14"/>
         <v>148.80000000000001</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="11"/>
+      <c r="K36">
+        <f t="shared" si="14"/>
         <v>163.1</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L37" t="s">
+      <c r="N36">
+        <f>SUM(N34:N35)</f>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="R36">
+        <f>SUM(R34:R35)</f>
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L38" t="s">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L39" t="s">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
         <v>87</v>
       </c>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chegg.xlsx
+++ b/chegg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F868A-BD00-48D3-9FF3-20B95285305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D9534-FDD1-4163-8530-0E0C2649AE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21990" yWindow="0" windowWidth="16515" windowHeight="20985" activeTab="1" xr2:uid="{432C428B-38F2-40D4-B093-3E544D75CE3B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{432C428B-38F2-40D4-B093-3E544D75CE3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Chegg</t>
   </si>
@@ -294,15 +294,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>disc rate</t>
-  </si>
-  <si>
-    <t>terminal rate</t>
-  </si>
-  <si>
-    <t>npv</t>
-  </si>
-  <si>
     <t>ev / fcf</t>
   </si>
   <si>
@@ -313,6 +304,9 @@
   </si>
   <si>
     <t>study pack rev</t>
+  </si>
+  <si>
+    <t>rev yoy</t>
   </si>
 </sst>
 </file>
@@ -386,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -409,8 +403,15 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13804A93-4D95-4F7A-9086-2F359A67F391}">
   <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +847,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L8" s="2">
         <f>L7/Sheet2!K36</f>
@@ -1030,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72E67F-4CE9-44B8-9C6B-F08A6351E538}">
-  <dimension ref="B1:R42"/>
+  <dimension ref="B1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,12 +1045,12 @@
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>2015</v>
       </c>
@@ -1085,29 +1086,30 @@
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -1120,14 +1122,15 @@
       <c r="K3" s="14">
         <v>7.7</v>
       </c>
-      <c r="Q3">
+      <c r="L3" s="24"/>
+      <c r="R3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -1139,22 +1142,24 @@
         <f>K6/K3</f>
         <v>83.181818181818187</v>
       </c>
-      <c r="Q4">
-        <f>Q6/Q3</f>
-        <v>33.363636363636367</v>
-      </c>
+      <c r="L4" s="24"/>
       <c r="R4">
         <f>R6/R3</f>
+        <v>33.363636363636367</v>
+      </c>
+      <c r="S4">
+        <f>S6/S3</f>
         <v>31.526315789473685</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -1164,20 +1169,21 @@
       <c r="K6" s="14">
         <v>640.5</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="24"/>
+      <c r="N6">
         <v>165.9</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>139.9</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>146.80000000000001</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>119.8</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -1189,26 +1195,27 @@
         <f>K6/K18</f>
         <v>0.89417841686444233</v>
       </c>
-      <c r="M7" s="7">
-        <f>M6/M18</f>
-        <v>0.90705303444505192</v>
-      </c>
+      <c r="L7" s="25"/>
       <c r="N7" s="7">
         <f>N6/N18</f>
+        <v>0.90705303444505192</v>
+      </c>
+      <c r="O7" s="7">
+        <f>O6/O18</f>
         <v>0.88600379987333755</v>
       </c>
-      <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7">
-        <f>Q6/Q18</f>
-        <v>0.89950980392156876</v>
-      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7">
         <f>R6/R18</f>
+        <v>0.89950980392156876</v>
+      </c>
+      <c r="S7" s="7">
+        <f>S6/S18</f>
         <v>0.87701317715959004</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -1218,20 +1225,21 @@
       <c r="K8" s="14">
         <v>75.8</v>
       </c>
-      <c r="M8">
+      <c r="L8" s="24"/>
+      <c r="N8">
         <v>17</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>17.899999999999999</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>16.3</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>16.8</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -1243,110 +1251,119 @@
         <f>K8/K18</f>
         <v>0.10582158313555773</v>
       </c>
-      <c r="M9" s="7">
-        <f>M8/M18</f>
-        <v>9.2946965554948052E-2</v>
-      </c>
+      <c r="L9" s="25"/>
       <c r="N9" s="7">
         <f>N8/N18</f>
+        <v>9.2946965554948052E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <f>O8/O18</f>
         <v>0.11336288790373653</v>
-      </c>
-      <c r="Q9" s="7">
-        <f>Q8/Q18</f>
-        <v>9.9877450980392163E-2</v>
       </c>
       <c r="R9" s="7">
         <f>R8/R18</f>
+        <v>9.9877450980392163E-2</v>
+      </c>
+      <c r="S9" s="7">
+        <f>S8/S18</f>
         <v>0.12298682284040996</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>76</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="15"/>
-      <c r="Q10">
+      <c r="L10" s="25"/>
+      <c r="R10">
         <v>3.4</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2.9</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="15"/>
-      <c r="Q11" s="7">
+      <c r="L11" s="25"/>
+      <c r="R11" s="7">
         <v>1.2329999999999999</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="7">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>77</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="15"/>
-      <c r="Q12" s="23">
+      <c r="L12" s="25"/>
+      <c r="R12" s="22">
         <v>0.78500000000000003</v>
       </c>
-      <c r="R12" s="23">
+      <c r="S12" s="22">
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="15"/>
-      <c r="Q13" s="23">
+      <c r="L13" s="25"/>
+      <c r="R13" s="22">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="R13" s="23">
+      <c r="S13" s="22">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J14" s="7"/>
       <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J15" s="7"/>
       <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>78</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="15"/>
-      <c r="Q16">
+      <c r="L16" s="25"/>
+      <c r="R16">
         <v>141.69999999999999</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>119.1</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>79</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="15"/>
-      <c r="Q17">
+      <c r="L17" s="25"/>
+      <c r="R17">
         <v>21.5</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>17.5</v>
       </c>
     </row>
-    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1379,28 +1396,33 @@
         <f>K6+K8</f>
         <v>716.3</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="23"/>
+      <c r="M18" s="5">
         <v>187.6</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>182.9</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <v>157.9</v>
       </c>
       <c r="P18" s="5">
+        <f>K18-(M18+N18+O18)</f>
+        <v>187.89999999999998</v>
+      </c>
+      <c r="Q18" s="5">
         <v>174.4</v>
-      </c>
-      <c r="Q18" s="5">
-        <f>SUM(Q16:Q17)</f>
-        <v>163.19999999999999</v>
       </c>
       <c r="R18" s="5">
         <f>SUM(R16:R17)</f>
+        <v>163.19999999999999</v>
+      </c>
+      <c r="S18" s="5">
+        <f>SUM(S16:S17)</f>
         <v>136.6</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -1422,26 +1444,31 @@
       <c r="K19" s="16">
         <v>-225.8</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="26"/>
+      <c r="M19" s="12">
         <v>-49.2</v>
       </c>
-      <c r="M19" s="12">
+      <c r="N19" s="12">
         <v>-47.4</v>
       </c>
-      <c r="N19" s="12">
+      <c r="O19" s="12">
         <v>-83.6</v>
       </c>
       <c r="P19" s="12">
+        <f>K19-(M19+N19+O19)</f>
+        <v>-45.600000000000023</v>
+      </c>
+      <c r="Q19" s="12">
         <v>-46.5</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="R19" s="12">
         <v>-45.4</v>
       </c>
-      <c r="R19" s="12">
+      <c r="S19" s="12">
         <v>-43.4</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
@@ -1481,36 +1508,37 @@
         <f>SUM(K18,K19)</f>
         <v>490.49999999999994</v>
       </c>
-      <c r="L20" s="5">
-        <f>SUM(L18,L19)</f>
+      <c r="L20" s="27"/>
+      <c r="M20" s="5">
+        <f>SUM(M18,M19)</f>
         <v>138.39999999999998</v>
       </c>
-      <c r="M20" s="5">
-        <f t="shared" ref="M20:Q20" si="2">SUM(M18,M19)</f>
+      <c r="N20" s="5">
+        <f t="shared" ref="N20:R20" si="2">SUM(N18,N19)</f>
         <v>135.5</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="5">
         <f t="shared" si="2"/>
         <v>74.300000000000011</v>
       </c>
-      <c r="O20" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="P20" s="5">
         <f t="shared" si="2"/>
-        <v>127.9</v>
+        <v>142.29999999999995</v>
       </c>
       <c r="Q20" s="5">
         <f t="shared" si="2"/>
+        <v>127.9</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="2"/>
         <v>117.79999999999998</v>
       </c>
-      <c r="R20" s="5">
-        <f t="shared" ref="R20" si="3">SUM(R18,R19)</f>
+      <c r="S20" s="5">
+        <f t="shared" ref="S20" si="3">SUM(S18,S19)</f>
         <v>93.199999999999989</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -1550,36 +1578,37 @@
         <f>K20/K18</f>
         <v>0.68476895155661033</v>
       </c>
-      <c r="L21" s="7">
-        <f>L20/L18</f>
+      <c r="L21" s="28"/>
+      <c r="M21" s="7">
+        <f>M20/M18</f>
         <v>0.73773987206823022</v>
       </c>
-      <c r="M21" s="7">
-        <f t="shared" ref="M21:Q21" si="5">M20/M18</f>
+      <c r="N21" s="7">
+        <f t="shared" ref="N21:R21" si="5">N20/N18</f>
         <v>0.74084199015855656</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <f t="shared" si="5"/>
         <v>0.4705509816339456</v>
       </c>
-      <c r="O21" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="P21" s="7">
         <f t="shared" si="5"/>
-        <v>0.73337155963302758</v>
+        <v>0.75731772219265547</v>
       </c>
       <c r="Q21" s="7">
         <f t="shared" si="5"/>
+        <v>0.73337155963302758</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" si="5"/>
         <v>0.72181372549019607</v>
       </c>
-      <c r="R21" s="7">
-        <f t="shared" ref="R21" si="6">R20/R18</f>
+      <c r="S21" s="7">
+        <f t="shared" ref="S21" si="6">S20/S18</f>
         <v>0.68228404099560758</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -1601,26 +1630,31 @@
       <c r="K22" s="16">
         <v>-191.7</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="26"/>
+      <c r="M22" s="12">
         <v>-46.9</v>
       </c>
-      <c r="M22" s="12">
+      <c r="N22" s="12">
         <v>-52.8</v>
       </c>
-      <c r="N22" s="22">
+      <c r="O22" s="12">
         <v>-46.2</v>
       </c>
       <c r="P22" s="12">
+        <f>K22-(M22+N22+O22)</f>
+        <v>-45.800000000000011</v>
+      </c>
+      <c r="Q22" s="12">
         <v>-44.4</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="R22" s="12">
         <v>-43.6</v>
       </c>
-      <c r="R22" s="12">
+      <c r="S22" s="12">
         <v>-41.3</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -1642,26 +1676,31 @@
       <c r="K23" s="16">
         <v>-126.6</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="26"/>
+      <c r="M23" s="12">
         <v>-37</v>
       </c>
-      <c r="M23" s="12">
+      <c r="N23" s="12">
         <v>-30.9</v>
       </c>
-      <c r="N23" s="22">
+      <c r="O23" s="12">
         <v>-28.9</v>
       </c>
       <c r="P23" s="12">
+        <f t="shared" ref="P23:P24" si="7">K23-(M23+N23+O23)</f>
+        <v>-29.799999999999983</v>
+      </c>
+      <c r="Q23" s="12">
         <v>-30</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="R23" s="12">
         <v>-23.5</v>
       </c>
-      <c r="R23" s="12">
+      <c r="S23" s="12">
         <v>-26.5</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>80</v>
       </c>
@@ -1683,26 +1722,31 @@
       <c r="K24" s="16">
         <v>-239.8</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="26"/>
+      <c r="M24" s="12">
         <v>-59</v>
       </c>
-      <c r="M24" s="12">
+      <c r="N24" s="12">
         <v>-70.3</v>
       </c>
-      <c r="N24" s="12">
+      <c r="O24" s="12">
         <v>-53.5</v>
       </c>
       <c r="P24" s="12">
+        <f t="shared" si="7"/>
+        <v>-57</v>
+      </c>
+      <c r="Q24" s="12">
         <v>-55.5</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="R24" s="12">
         <v>-54</v>
       </c>
-      <c r="R24" s="12">
+      <c r="S24" s="12">
         <v>-51.9</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -1711,129 +1755,134 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="16"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12">
+      <c r="K25" s="16">
         <v>-3.6</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="L25" s="26"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12">
+        <v>-3.6</v>
+      </c>
+      <c r="R25" s="12">
         <v>-481.5</v>
       </c>
-      <c r="R25" s="12">
+      <c r="S25" s="12">
         <v>-195.7</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ref="C26:P26" si="7">C20+C22+C23+C24</f>
+        <f t="shared" ref="C26:Q26" si="8">C20+C22+C23+C24</f>
         <v>301.39999999999998</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>254.1</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>255.1</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5.5999999999999801</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.799999999999983</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56.799999999999983</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>78.100000000000051</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="K26" s="17">
-        <f t="shared" si="7"/>
-        <v>-67.600000000000051</v>
-      </c>
-      <c r="L26" s="21">
-        <f t="shared" si="7"/>
+        <f>K20+K22+K23+K24+K25</f>
+        <v>-71.200000000000045</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="21">
+        <f t="shared" si="8"/>
         <v>-4.5000000000000284</v>
       </c>
-      <c r="M26" s="21">
-        <f t="shared" si="7"/>
+      <c r="N26" s="21">
+        <f t="shared" si="8"/>
         <v>-18.499999999999993</v>
       </c>
-      <c r="N26" s="21">
-        <f>N20+N22+N23+N24+N25</f>
+      <c r="O26" s="21">
+        <f>O20+O22+O23+O24+O25</f>
         <v>-57.899999999999991</v>
       </c>
-      <c r="O26" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P26" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>9.6999999999999602</v>
+      </c>
+      <c r="Q26" s="21">
+        <f t="shared" si="8"/>
         <v>-2</v>
-      </c>
-      <c r="Q26" s="21">
-        <f>Q20+Q22+Q23+Q24+Q25</f>
-        <v>-484.8</v>
       </c>
       <c r="R26" s="21">
         <f>R20+R22+R23+R24+R25</f>
+        <v>-484.8</v>
+      </c>
+      <c r="S26" s="21">
+        <f>S20+S22+S23+S24+S25</f>
         <v>-222.2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:K27" si="8">C26/C18</f>
+        <f t="shared" ref="C27:K27" si="9">C26/C18</f>
         <v>1</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.7440049828713732E-2</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.3319542467753672E-2</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.8157690516839957E-2</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10061839732027834</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1735558742991264E-2</v>
       </c>
       <c r="K27" s="19">
-        <f t="shared" si="8"/>
-        <v>-9.4373865698729659E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>-9.939969286611762E-2</v>
+      </c>
+      <c r="L27" s="29"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>42</v>
       </c>
@@ -1855,30 +1904,35 @@
       <c r="K28" s="20">
         <v>118</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="30"/>
+      <c r="M28" s="12">
         <v>10.8</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f>64.1- 1.1</f>
         <v>62.999999999999993</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <f>-0.733+40.5</f>
         <v>39.767000000000003</v>
       </c>
       <c r="P28">
+        <f t="shared" ref="P28:P29" si="10">K28-(M28+N28+O28)</f>
+        <v>4.4329999999999927</v>
+      </c>
+      <c r="Q28">
         <v>10.1</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <f>7.1-0.65</f>
         <v>6.4499999999999993</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f>-0.658+7.6</f>
         <v>6.9419999999999993</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -1900,47 +1954,52 @@
       <c r="K29" s="20">
         <v>-32.1</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="30"/>
+      <c r="M29" s="12">
         <v>-4.2</v>
       </c>
-      <c r="M29">
+      <c r="N29" s="12">
         <v>-19.7</v>
       </c>
-      <c r="N29">
+      <c r="O29" s="8">
         <v>-0.17199999999999999</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="12">
+        <f t="shared" si="10"/>
+        <v>-8.0280000000000022</v>
+      </c>
+      <c r="Q29" s="12">
         <v>-9.1</v>
       </c>
-      <c r="Q29">
+      <c r="R29" s="12">
         <v>-138.30000000000001</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2.7</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" ref="D30:H30" si="9">SUM(D26,D28,D29)</f>
+        <f t="shared" ref="D30:H30" si="11">SUM(D26,D28,D29)</f>
         <v>254.1</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>255.1</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-14.19999999999998</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-9.6000000000000174</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-6.2000000000000188</v>
       </c>
       <c r="I30" s="5">
@@ -1953,38 +2012,39 @@
       </c>
       <c r="K30" s="17">
         <f>SUM(K26,K28,K29)</f>
-        <v>18.299999999999947</v>
-      </c>
-      <c r="L30" s="5">
-        <f>SUM(L26,L28,L29)</f>
+        <v>14.699999999999953</v>
+      </c>
+      <c r="L30" s="27"/>
+      <c r="M30" s="5">
+        <f>SUM(M26,M28,M29)</f>
         <v>2.0999999999999721</v>
       </c>
-      <c r="M30" s="5">
-        <f t="shared" ref="M30:Q30" si="10">SUM(M26,M28,M29)</f>
+      <c r="N30" s="5">
+        <f t="shared" ref="N30:R30" si="12">SUM(N26,N28,N29)</f>
         <v>24.8</v>
       </c>
-      <c r="N30" s="5">
-        <f t="shared" si="10"/>
+      <c r="O30" s="5">
+        <f t="shared" si="12"/>
         <v>-18.304999999999989</v>
       </c>
-      <c r="O30" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="P30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
+        <v>6.1049999999999507</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-      <c r="Q30" s="21">
-        <f t="shared" si="10"/>
+      <c r="R30" s="21">
+        <f t="shared" si="12"/>
         <v>-616.65000000000009</v>
       </c>
-      <c r="R30" s="21">
-        <f t="shared" ref="R30" si="11">SUM(R26,R28,R29)</f>
+      <c r="S30" s="21">
+        <f t="shared" ref="S30" si="13">SUM(S26,S28,S29)</f>
         <v>-212.55799999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -2009,21 +2069,22 @@
       <c r="K31" s="14">
         <v>475.9</v>
       </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>44</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:H32" si="12">F31-F30</f>
+        <f t="shared" ref="F32:H32" si="14">F31-F30</f>
         <v>141.19999999999999</v>
       </c>
       <c r="G32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>385.5</v>
       </c>
       <c r="H32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>395.6</v>
       </c>
       <c r="I32">
@@ -2037,21 +2098,22 @@
       <c r="K32" s="14">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>45</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:H33" si="13">F32-F31</f>
+        <f t="shared" ref="F33:H33" si="15">F32-F31</f>
         <v>14.199999999999989</v>
       </c>
       <c r="G33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.6000000000000227</v>
       </c>
       <c r="H33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.2000000000000455</v>
       </c>
       <c r="I33" s="12">
@@ -2066,8 +2128,9 @@
         <f>K32-K31</f>
         <v>-337.9</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>81</v>
       </c>
@@ -2089,17 +2152,17 @@
       <c r="K34">
         <v>246.2</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>32.799999999999997</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>53.3</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>39.5</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>82</v>
       </c>
@@ -2126,14 +2189,15 @@
         <f>-83.1</f>
         <v>-83.1</v>
       </c>
-      <c r="N35">
+      <c r="L35" s="12"/>
+      <c r="O35">
         <v>-23.4</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>-15.8</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>83</v>
       </c>
@@ -2142,52 +2206,77 @@
         <v>75.099999999999994</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:K36" si="14">SUM(G34:G35)</f>
+        <f t="shared" ref="G36:K36" si="16">SUM(G34:G35)</f>
         <v>71.100000000000009</v>
       </c>
       <c r="H36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>153.30000000000001</v>
       </c>
       <c r="I36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>168.09999999999997</v>
       </c>
       <c r="J36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>148.80000000000001</v>
       </c>
       <c r="K36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>163.1</v>
       </c>
-      <c r="N36">
-        <f>SUM(N34:N35)</f>
+      <c r="O36">
+        <f>SUM(O34:O35)</f>
         <v>9.3999999999999986</v>
       </c>
-      <c r="R36">
-        <f>SUM(R34:R35)</f>
+      <c r="S36">
+        <f>SUM(S34:S35)</f>
         <v>23.7</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L41" t="s">
-        <v>87</v>
-      </c>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="M42" s="2"/>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="7">
+        <f>D18/C18-1</f>
+        <v>-0.15693430656934304</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" ref="E39:K39" si="17">E18/D18-1</f>
+        <v>3.9354584809130344E-3</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="17"/>
+        <v>0.25872206977655843</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="17"/>
+        <v>0.27966365618187461</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="17"/>
+        <v>0.56802141640301773</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="17"/>
+        <v>0.20471829892907056</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="17"/>
+        <v>-1.1981448080391699E-2</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" si="17"/>
+        <v>-6.5979919155039757E-2</v>
+      </c>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chegg.xlsx
+++ b/chegg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D9534-FDD1-4163-8530-0E0C2649AE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E66BC9F-BB62-4F30-B85A-86E64E712C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{432C428B-38F2-40D4-B093-3E544D75CE3B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{432C428B-38F2-40D4-B093-3E544D75CE3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>Chegg</t>
   </si>
@@ -291,9 +291,6 @@
     <t>fcf</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ev / fcf</t>
   </si>
   <si>
@@ -307,6 +304,135 @@
   </si>
   <si>
     <t>rev yoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t>fcf growth</t>
+  </si>
+  <si>
+    <t>COR yoy</t>
+  </si>
+  <si>
+    <t>r&amp;d growth</t>
+  </si>
+  <si>
+    <t>s&amp;m yoy</t>
+  </si>
+  <si>
+    <t>g&amp;a yoy</t>
+  </si>
+  <si>
+    <t>income yoy</t>
+  </si>
+  <si>
+    <t>op cash flow yoy</t>
+  </si>
+  <si>
+    <t>Firm</t>
+  </si>
+  <si>
+    <t>Shares (millions)</t>
+  </si>
+  <si>
+    <t>vanguard</t>
+  </si>
+  <si>
+    <t>blackrock</t>
+  </si>
+  <si>
+    <t>Sylebra Capital LLC</t>
+  </si>
+  <si>
+    <t>Shaw D.E &amp; co</t>
+  </si>
+  <si>
+    <t>Dimensional Fund Advisors</t>
+  </si>
+  <si>
+    <t>Acadian Asset Management, LLC</t>
+  </si>
+  <si>
+    <t>AQR Capital Management</t>
+  </si>
+  <si>
+    <t>Man Group PLC</t>
+  </si>
+  <si>
+    <t>Geode Capital Management</t>
+  </si>
+  <si>
+    <t>State Street Corporation</t>
+  </si>
+  <si>
+    <t>Related Companies</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>Genius Group Limited</t>
+  </si>
+  <si>
+    <t>TAL Education Group</t>
+  </si>
+  <si>
+    <t>Stride, Inc</t>
+  </si>
+  <si>
+    <t>Gaotu Techedu Inc</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>Lincoln Educational</t>
+  </si>
+  <si>
+    <t>Perdoceo Education</t>
+  </si>
+  <si>
+    <t>Youdao</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>PRDO</t>
+  </si>
+  <si>
+    <t>LINC</t>
+  </si>
+  <si>
+    <t>UDMY</t>
+  </si>
+  <si>
+    <t>GOTU</t>
+  </si>
+  <si>
+    <t>LRN</t>
+  </si>
+  <si>
+    <t>EDU</t>
+  </si>
+  <si>
+    <t>New Oriental Education</t>
+  </si>
+  <si>
+    <t>TAL</t>
+  </si>
+  <si>
+    <t>GNS</t>
+  </si>
+  <si>
+    <t>COUR</t>
+  </si>
+  <si>
+    <t>Ticker ($)</t>
+  </si>
+  <si>
+    <t>MC (millions)</t>
   </si>
 </sst>
 </file>
@@ -358,7 +484,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -375,12 +501,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -404,14 +539,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,14 +882,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13804A93-4D95-4F7A-9086-2F359A67F391}">
-  <dimension ref="B1:M47"/>
+  <dimension ref="B1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -847,7 +984,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L8" s="2">
         <f>L7/Sheet2!K36</f>
@@ -1022,6 +1159,248 @@
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="28">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="28">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="28">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="28">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="28">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="28">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="28">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="28">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67">
+        <v>6.93</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68">
+        <v>0.87</v>
+      </c>
+      <c r="E68">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69">
+        <v>9.84</v>
+      </c>
+      <c r="E69" s="4">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70">
+        <v>55.9</v>
+      </c>
+      <c r="E70" s="4">
+        <v>9141</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71">
+        <v>100.3</v>
+      </c>
+      <c r="E71" s="4">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72">
+        <v>2.59</v>
+      </c>
+      <c r="E72" s="4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" t="s">
+        <v>122</v>
+      </c>
+      <c r="D73">
+        <v>7.96</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74">
+        <v>15.19</v>
+      </c>
+      <c r="E74" s="4">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75">
+        <v>26.55</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76">
+        <v>4.87</v>
+      </c>
+      <c r="E76" s="4">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -1031,13 +1410,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72E67F-4CE9-44B8-9C6B-F08A6351E538}">
-  <dimension ref="B1:S42"/>
+  <dimension ref="B1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1465,7 @@
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1106,13 +1485,22 @@
         <v>51</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="I3">
         <v>7.8</v>
       </c>
@@ -1122,7 +1510,6 @@
       <c r="K3" s="14">
         <v>7.7</v>
       </c>
-      <c r="L3" s="24"/>
       <c r="R3">
         <v>4.4000000000000004</v>
       </c>
@@ -1134,6 +1521,17 @@
       <c r="B4" t="s">
         <v>39</v>
       </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <f>D6/D3</f>
+        <v>86</v>
+      </c>
+      <c r="E4">
+        <f>E6/E3</f>
+        <v>84.409090909090892</v>
+      </c>
       <c r="J4">
         <f>J6/J3</f>
         <v>82.962962962962962</v>
@@ -1142,7 +1540,6 @@
         <f>K6/K3</f>
         <v>83.181818181818187</v>
       </c>
-      <c r="L4" s="24"/>
       <c r="R4">
         <f>R6/R3</f>
         <v>33.363636363636367</v>
@@ -1157,19 +1554,26 @@
         <v>28</v>
       </c>
       <c r="K5" s="14"/>
-      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>27</v>
       </c>
+      <c r="C6">
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <v>129</v>
+      </c>
+      <c r="E6">
+        <v>185.7</v>
+      </c>
       <c r="J6">
         <v>672</v>
       </c>
       <c r="K6" s="14">
         <v>640.5</v>
       </c>
-      <c r="L6" s="24"/>
       <c r="N6">
         <v>165.9</v>
       </c>
@@ -1195,7 +1599,7 @@
         <f>K6/K18</f>
         <v>0.89417841686444233</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="23"/>
       <c r="N7" s="7">
         <f>N6/N18</f>
         <v>0.90705303444505192</v>
@@ -1225,7 +1629,6 @@
       <c r="K8" s="14">
         <v>75.8</v>
       </c>
-      <c r="L8" s="24"/>
       <c r="N8">
         <v>17</v>
       </c>
@@ -1251,7 +1654,7 @@
         <f>K8/K18</f>
         <v>0.10582158313555773</v>
       </c>
-      <c r="L9" s="25"/>
+      <c r="L9" s="23"/>
       <c r="N9" s="7">
         <f>N8/N18</f>
         <v>9.2946965554948052E-2</v>
@@ -1275,7 +1678,7 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="23"/>
       <c r="R10">
         <v>3.4</v>
       </c>
@@ -1285,11 +1688,11 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="25"/>
+      <c r="L11" s="23"/>
       <c r="R11" s="7">
         <v>1.2329999999999999</v>
       </c>
@@ -1303,7 +1706,7 @@
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="25"/>
+      <c r="L12" s="23"/>
       <c r="R12" s="22">
         <v>0.78500000000000003</v>
       </c>
@@ -1313,11 +1716,11 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="25"/>
+      <c r="L13" s="23"/>
       <c r="R13" s="22">
         <v>7.2999999999999995E-2</v>
       </c>
@@ -1328,12 +1731,12 @@
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J14" s="7"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="25"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J15" s="7"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="25"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1341,7 +1744,7 @@
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="25"/>
+      <c r="L16" s="23"/>
       <c r="R16">
         <v>141.69999999999999</v>
       </c>
@@ -1355,7 +1758,7 @@
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="25"/>
+      <c r="L17" s="23"/>
       <c r="R17">
         <v>21.5</v>
       </c>
@@ -1396,7 +1799,6 @@
         <f>K6+K8</f>
         <v>716.3</v>
       </c>
-      <c r="L18" s="23"/>
       <c r="M18" s="5">
         <v>187.6</v>
       </c>
@@ -1426,6 +1828,15 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
+      <c r="C19" s="12">
+        <v>-189.8</v>
+      </c>
+      <c r="D19" s="12">
+        <v>-119.6</v>
+      </c>
+      <c r="E19" s="12">
+        <v>-80.2</v>
+      </c>
       <c r="F19" s="12">
         <v>-80</v>
       </c>
@@ -1444,7 +1855,7 @@
       <c r="K19" s="16">
         <v>-225.8</v>
       </c>
-      <c r="L19" s="26"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="12">
         <v>-49.2</v>
       </c>
@@ -1474,15 +1885,15 @@
       </c>
       <c r="C20" s="5">
         <f>SUM(C18,C19)</f>
-        <v>301.39999999999998</v>
+        <v>111.59999999999997</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" ref="D20:H20" si="1">SUM(D18,D19)</f>
-        <v>254.1</v>
+        <v>134.5</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>255.1</v>
+        <v>174.89999999999998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
@@ -1508,7 +1919,7 @@
         <f>SUM(K18,K19)</f>
         <v>490.49999999999994</v>
       </c>
-      <c r="L20" s="27"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="5">
         <f>SUM(M18,M19)</f>
         <v>138.39999999999998</v>
@@ -1544,15 +1955,15 @@
       </c>
       <c r="C21" s="11">
         <f>C20/C18</f>
-        <v>1</v>
+        <v>0.37027206370272053</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" ref="D21:H21" si="4">D20/D18</f>
-        <v>1</v>
+        <v>0.52931916568280202</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.68561348490787921</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="4"/>
@@ -1578,7 +1989,7 @@
         <f>K20/K18</f>
         <v>0.68476895155661033</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="7">
         <f>M20/M18</f>
         <v>0.73773987206823022</v>
@@ -1612,6 +2023,15 @@
       <c r="B22" t="s">
         <v>33</v>
       </c>
+      <c r="C22" s="12">
+        <v>-59.4</v>
+      </c>
+      <c r="D22" s="12">
+        <v>-66.3</v>
+      </c>
+      <c r="E22" s="12">
+        <v>-81.900000000000006</v>
+      </c>
       <c r="F22" s="12">
         <v>-114.3</v>
       </c>
@@ -1630,7 +2050,7 @@
       <c r="K22" s="16">
         <v>-191.7</v>
       </c>
-      <c r="L22" s="26"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="12">
         <v>-46.9</v>
       </c>
@@ -1658,6 +2078,15 @@
       <c r="B23" t="s">
         <v>34</v>
       </c>
+      <c r="C23" s="12">
+        <v>-64.099999999999994</v>
+      </c>
+      <c r="D23" s="12">
+        <v>-53.9</v>
+      </c>
+      <c r="E23" s="12">
+        <v>-51.2</v>
+      </c>
       <c r="F23" s="12">
         <v>-54.7</v>
       </c>
@@ -1676,7 +2105,7 @@
       <c r="K23" s="16">
         <v>-126.6</v>
       </c>
-      <c r="L23" s="26"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="12">
         <v>-37</v>
       </c>
@@ -1704,6 +2133,15 @@
       <c r="B24" t="s">
         <v>80</v>
       </c>
+      <c r="C24" s="12">
+        <v>-45.2</v>
+      </c>
+      <c r="D24" s="12">
+        <v>-55.3</v>
+      </c>
+      <c r="E24" s="12">
+        <v>-64.400000000000006</v>
+      </c>
       <c r="F24" s="12">
         <v>-77.7</v>
       </c>
@@ -1722,7 +2160,7 @@
       <c r="K24" s="16">
         <v>-239.8</v>
       </c>
-      <c r="L24" s="26"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="12">
         <v>-59</v>
       </c>
@@ -1749,6 +2187,15 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>52</v>
+      </c>
+      <c r="C25" s="12">
+        <v>-4.3</v>
+      </c>
+      <c r="D25" s="12">
+        <v>-0.67</v>
+      </c>
+      <c r="E25" s="12">
+        <v>-4.8</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -1758,7 +2205,7 @@
       <c r="K25" s="16">
         <v>-3.6</v>
       </c>
-      <c r="L25" s="26"/>
+      <c r="L25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12">
         <v>-3.6</v>
@@ -1774,43 +2221,43 @@
       <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="5">
-        <f t="shared" ref="C26:Q26" si="8">C20+C22+C23+C24</f>
-        <v>301.39999999999998</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="8"/>
-        <v>254.1</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="8"/>
-        <v>255.1</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="8"/>
+      <c r="C26" s="21">
+        <f>C20+C22+C23+C24+C25</f>
+        <v>-61.400000000000027</v>
+      </c>
+      <c r="D26" s="21">
+        <f>D20+D22+D23+D24+D25</f>
+        <v>-41.669999999999995</v>
+      </c>
+      <c r="E26" s="21">
+        <f>E20+E22+E23+E24+E25</f>
+        <v>-27.400000000000038</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" ref="F26:Q26" si="8">F20+F22+F23+F24</f>
         <v>-5.5999999999999801</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="21">
         <f t="shared" si="8"/>
         <v>17.799999999999983</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="21">
         <f t="shared" si="8"/>
         <v>56.799999999999983</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="21">
         <f t="shared" si="8"/>
         <v>78.100000000000051</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="21">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="21">
         <f>K20+K22+K23+K24+K25</f>
         <v>-71.200000000000045</v>
       </c>
-      <c r="L26" s="27"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="21">
         <f t="shared" si="8"/>
         <v>-4.5000000000000284</v>
@@ -1844,17 +2291,17 @@
       <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="10">
         <f t="shared" ref="C27:K27" si="9">C26/C18</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+        <v>-0.20371599203716004</v>
+      </c>
+      <c r="D27" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
+        <v>-0.16399055489964579</v>
+      </c>
+      <c r="E27" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>-0.10740885927087432</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="9"/>
@@ -1880,12 +2327,21 @@
         <f t="shared" si="9"/>
         <v>-9.939969286611762E-2</v>
       </c>
-      <c r="L27" s="29"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>42</v>
       </c>
+      <c r="C28" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D28" s="12">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.48599999999999999</v>
+      </c>
       <c r="F28" s="12">
         <v>-7.2</v>
       </c>
@@ -1904,7 +2360,7 @@
       <c r="K28" s="20">
         <v>118</v>
       </c>
-      <c r="L28" s="30"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="12">
         <v>10.8</v>
       </c>
@@ -1936,6 +2392,15 @@
       <c r="B29" t="s">
         <v>37</v>
       </c>
+      <c r="C29" s="12">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1.802</v>
+      </c>
       <c r="F29" s="12">
         <v>-1.4</v>
       </c>
@@ -1954,7 +2419,7 @@
       <c r="K29" s="20">
         <v>-32.1</v>
       </c>
-      <c r="L29" s="30"/>
+      <c r="L29" s="8"/>
       <c r="M29" s="12">
         <v>-4.2</v>
       </c>
@@ -1982,23 +2447,27 @@
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" ref="D30:H30" si="11">SUM(D26,D28,D29)</f>
-        <v>254.1</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="C30" s="12">
+        <f t="shared" ref="C30:H30" si="11">SUM(C26,C28,C29)</f>
+        <v>-59.890000000000029</v>
+      </c>
+      <c r="D30" s="12">
         <f t="shared" si="11"/>
-        <v>255.1</v>
-      </c>
-      <c r="F30" s="5">
+        <v>-40.430999999999997</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="11"/>
+        <v>-25.112000000000037</v>
+      </c>
+      <c r="F30" s="12">
         <f t="shared" si="11"/>
         <v>-14.19999999999998</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="12">
         <f t="shared" si="11"/>
         <v>-9.6000000000000174</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="12">
         <f t="shared" si="11"/>
         <v>-6.2000000000000188</v>
       </c>
@@ -2014,7 +2483,7 @@
         <f>SUM(K26,K28,K29)</f>
         <v>14.699999999999953</v>
       </c>
-      <c r="L30" s="27"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="5">
         <f>SUM(M26,M28,M29)</f>
         <v>2.0999999999999721</v>
@@ -2048,16 +2517,18 @@
       <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="E31">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12">
         <v>141.19999999999999</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="12">
         <v>127</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="12">
         <v>375.9</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="12">
         <v>389.4</v>
       </c>
       <c r="I31">
@@ -2069,21 +2540,23 @@
       <c r="K31" s="14">
         <v>475.9</v>
       </c>
-      <c r="L31" s="24"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="F32">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12">
         <f t="shared" ref="F32:H32" si="14">F31-F30</f>
         <v>141.19999999999999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="12">
         <f t="shared" si="14"/>
         <v>385.5</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="12">
         <f t="shared" si="14"/>
         <v>395.6</v>
       </c>
@@ -2098,21 +2571,23 @@
       <c r="K32" s="14">
         <v>138</v>
       </c>
-      <c r="L32" s="24"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="F33">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12">
         <f t="shared" ref="F33:H33" si="15">F32-F31</f>
         <v>14.199999999999989</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="12">
         <f t="shared" si="15"/>
         <v>9.6000000000000227</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="12">
         <f t="shared" si="15"/>
         <v>6.2000000000000455</v>
       </c>
@@ -2128,19 +2603,28 @@
         <f>K32-K31</f>
         <v>-337.9</v>
       </c>
-      <c r="L33" s="26"/>
+      <c r="L33" s="12"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="F34">
+      <c r="C34" s="12">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="D34" s="12">
+        <v>24.9</v>
+      </c>
+      <c r="E34" s="12">
+        <v>51.15</v>
+      </c>
+      <c r="F34" s="12">
         <v>75.099999999999994</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="12">
         <v>113.4</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="12">
         <v>236.4</v>
       </c>
       <c r="I34">
@@ -2166,8 +2650,21 @@
       <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>84</v>
+      <c r="C35" s="12">
+        <f>-32.3+38.26-8.2-2</f>
+        <v>-4.2399999999999984</v>
+      </c>
+      <c r="D35" s="12">
+        <f>-0.886+25.6-24.7-27-1</f>
+        <v>-27.985999999999997</v>
+      </c>
+      <c r="E35" s="12">
+        <f>6.9-26.14-14.9</f>
+        <v>-34.14</v>
+      </c>
+      <c r="F35" s="12">
+        <f>-31.2-34.65-10</f>
+        <v>-75.849999999999994</v>
       </c>
       <c r="G35" s="12">
         <f>-42.3</f>
@@ -2201,28 +2698,40 @@
       <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="F36">
+      <c r="C36" s="12">
+        <f t="shared" ref="C36:E36" si="16">SUM(C34:C35)</f>
+        <v>-4.3219999999999983</v>
+      </c>
+      <c r="D36" s="12">
+        <f t="shared" si="16"/>
+        <v>-3.0859999999999985</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="16"/>
+        <v>17.009999999999998</v>
+      </c>
+      <c r="F36" s="12">
         <f>SUM(F34:F35)</f>
-        <v>75.099999999999994</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ref="G36:K36" si="16">SUM(G34:G35)</f>
+        <v>-0.75</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" ref="G36:K36" si="17">SUM(G34:G35)</f>
         <v>71.100000000000009</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="16"/>
+      <c r="H36" s="12">
+        <f t="shared" si="17"/>
         <v>153.30000000000001</v>
       </c>
       <c r="I36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>168.09999999999997</v>
       </c>
       <c r="J36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>148.80000000000001</v>
       </c>
       <c r="K36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>163.1</v>
       </c>
       <c r="O36">
@@ -2236,49 +2745,268 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="7">
         <f>D18/C18-1</f>
         <v>-0.15693430656934304</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" ref="E39:K39" si="17">E18/D18-1</f>
+        <f t="shared" ref="E39:K39" si="18">E18/D18-1</f>
         <v>3.9354584809130344E-3</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.25872206977655843</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.27966365618187461</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.56802141640301773</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.20471829892907056</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.1981448080391699E-2</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6.5979919155039757E-2</v>
       </c>
       <c r="L39" s="7"/>
     </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N41" s="2"/>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="7">
+        <f>(D22-C22)/ABS(C22)*-1</f>
+        <v>0.11616161616161615</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" ref="E41:K41" si="19">(E22-D22)/ABS(D22)*-1</f>
+        <v>0.23529411764705896</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="19"/>
+        <v>0.39560439560439548</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="19"/>
+        <v>0.22309711286089251</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="19"/>
+        <v>0.22246065808297563</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="19"/>
+        <v>4.6225863077823323E-2</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="19"/>
+        <v>9.9552572706935016E-2</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="19"/>
+        <v>-2.4923702950152622E-2</v>
+      </c>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N42" s="2"/>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" ref="D42:K43" si="20">(D23-C23)/ABS(C23)*-1</f>
+        <v>-0.15912636505460212</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="20"/>
+        <v>-5.0092764378478587E-2</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="20"/>
+        <v>6.8359375E-2</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="20"/>
+        <v>0.16270566727605115</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="20"/>
+        <v>0.28773584905660382</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="20"/>
+        <v>0.28693528693528692</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="20"/>
+        <v>0.4013282732447816</v>
+      </c>
+      <c r="K42" s="7">
+        <f t="shared" si="20"/>
+        <v>-0.14285714285714282</v>
+      </c>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="20"/>
+        <v>0.22345132743362817</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="20"/>
+        <v>0.16455696202531661</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="20"/>
+        <v>0.20652173913043473</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="20"/>
+        <v>0.25482625482625476</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="20"/>
+        <v>0.32615384615384629</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="20"/>
+        <v>0.2296983758700695</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="20"/>
+        <v>0.35974842767295589</v>
+      </c>
+      <c r="K43" s="7">
+        <f t="shared" si="20"/>
+        <v>0.10915818686401491</v>
+      </c>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="7">
+        <f>(D34-C34)/ABS(C34)</f>
+        <v>304.65853658536582</v>
+      </c>
+      <c r="E45" s="7">
+        <f>E34/D34-1</f>
+        <v>1.0542168674698797</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" ref="F45:K45" si="21">F34/E34-1</f>
+        <v>0.46823069403714568</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="21"/>
+        <v>0.50998668442077255</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="21"/>
+        <v>1.0846560846560847</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="21"/>
+        <v>0.15566835871404394</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="21"/>
+        <v>-6.4055636896046875E-2</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="21"/>
+        <v>-3.7152913570590584E-2</v>
+      </c>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="7">
+        <f>(D36-C36)/ABS(C36)</f>
+        <v>0.28597871355853777</v>
+      </c>
+      <c r="E46" s="7">
+        <f>(E36-D36)/ABS(D36)</f>
+        <v>6.5119896305897624</v>
+      </c>
+      <c r="F46" s="7">
+        <f>F36/E36-1</f>
+        <v>-1.0440917107583774</v>
+      </c>
+      <c r="G46" s="7">
+        <f>(G36-F36)/ABS(F36)</f>
+        <v>95.800000000000011</v>
+      </c>
+      <c r="H46" s="7">
+        <f>H36/G36-1</f>
+        <v>1.1561181434599157</v>
+      </c>
+      <c r="I46" s="7">
+        <f>I36/H36-1</f>
+        <v>9.6542726679712754E-2</v>
+      </c>
+      <c r="J46" s="7">
+        <f>J36/I36-1</f>
+        <v>-0.11481261154074929</v>
+      </c>
+      <c r="K46" s="7">
+        <f>K36/J36-1</f>
+        <v>9.6102150537634268E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="H47" s="26"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>